--- a/output/동부대로_W_가을_배출량/동부대로_W_가을_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_W_가을_배출량/동부대로_W_가을_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1210 +397,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.545371392242338</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>0.5818581489630653</v>
+      </c>
+      <c r="F2">
         <v>0.2391277244611224</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>3.013120679698949</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>3.594978828662014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.410646706764801</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.7172416519443581</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F3">
         <v>0.199273103717602</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.698381032619946</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>2.916577838481095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.957470430173627</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.075862477916537</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F4">
         <v>0.2391277244611224</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>3.839677975044922</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>4.276071586767221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.084270134152486</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.1533190731561433</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.219310808305409</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F5">
         <v>0.4184735178069642</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>4.195111162452513</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>4.631504774174813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.924318173012425</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.362759138694281</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>0.509125880342682</v>
+      </c>
+      <c r="F6">
         <v>0.2391277244611224</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>4.701426834060562</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>5.210552714403245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3.883240934352539</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.8606899823332298</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.018251760685364</v>
+      </c>
+      <c r="F7">
         <v>0.4583281385504845</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>5.485867726483071</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>6.504119487168435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2.092195115651165</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.358620825972179</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F8">
         <v>0.09963655185880101</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>3.161475285448964</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>3.379672091310114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.735570948210625</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.645517486749922</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F9">
         <v>0.1394911726023214</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>2.804188278809685</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>2.949652816050452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.553296373741015</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F10">
         <v>0.1394911726023214</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.246555921231187</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>2.464752727092337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.9113728723480452</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F11">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1.234617327624433</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>1.307349596244816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.4834238714193977</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.219027247365919</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="F12">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12">
         <v>0.841413310720749</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.3566241674405395</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="I13">
         <v>0.7858754201550107</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.2060495189656451</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
+      <c r="I14">
         <v>0.3796108161545506</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1267997039788585</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
+      <c r="I15">
         <v>0.6099129737710018</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1267997039788585</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="E16">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="G16">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>0.2067341112367364</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>0.2794663798571195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3407742044431821</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.09963655185880101</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>1.063465530238122</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.6656984458890067</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F18">
         <v>0.1195638622305612</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>1.58134462886966</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>1.79954143473081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.347246854775372</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.004138312722102</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.5818581489630653</v>
+      </c>
+      <c r="F19">
         <v>0.2391277244611224</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.719409665320901</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>3.375630731489272</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>3.957488880452337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.488444190585097</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.004138312722102</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F20">
         <v>0.3586915866916836</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>4.302428067449945</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>4.447892604690711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3.835691045360467</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.9324141475276656</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.7273226862038317</v>
+      </c>
+      <c r="F21">
         <v>0.3586915866916836</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.719409665320901</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H21" t="n">
-        <v>6.060528717099247</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>6.787851403303078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.901995559682876</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.2409299721025109</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.5818581489630653</v>
+      </c>
+      <c r="F22">
         <v>0.2192004140893622</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>3.575394525493259</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>4.157252674456324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.220447150796513</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23">
         <v>0.4384008281787243</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.1173014229173828</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23">
         <v>2.572231722642712</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.402721725266121</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1971245226293271</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.5020691563610508</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24">
         <v>0.3387642763199235</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24">
         <v>2.758683850961644</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.442346632759515</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F25">
         <v>0.3586915866916836</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.962218149590623</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>3.034950418211006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.489896521751587</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F26">
         <v>0.298909655576403</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>0.5595408508051453</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.136462621887151</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>3.354659427748301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.418571688263479</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1971245226293271</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.7889658171387939</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.2909290744815327</v>
+      </c>
+      <c r="F27">
         <v>0.2192004140893622</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.062634952716146</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>3.353564027197678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.76727087420534</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1.147586643110973</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>0.3636613431019158</v>
+      </c>
+      <c r="F28">
         <v>0.2590550348328826</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>0.719409665320901</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H28" t="n">
-        <v>4.03723134029146</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>4.400892683393376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2.06049518965645</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>1.291034973499844</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.2909290744815327</v>
+      </c>
+      <c r="F29">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>3.841863264038366</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>4.132792338519899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.948093117508461</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>1.362759138694281</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F30">
         <v>0.2192004140893622</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>4.973530156054677</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>5.409923767776975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>4.025890601328757</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1.004138312722102</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.5818581489630653</v>
+      </c>
+      <c r="F31">
         <v>0.1793457933458418</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H31" t="n">
-        <v>5.774858591244046</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>6.356716740207112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2.456744264590383</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.9324141475276656</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F32">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>3.987878386354203</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>4.424271998076502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.88614559668552</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.645517486749922</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F33">
         <v>0.1594184829740816</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H33" t="n">
-        <v>3.275496658472361</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>3.348228927092744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.426496669762158</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.645517486749922</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F34">
         <v>0.1195638622305612</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
-        <v>2.59892654672052</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>2.671658815340904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.196672206300476</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.358620825972179</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35">
         <v>1.778894606633355</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.5388987419101489</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1533190731561433</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
+      <c r="I36">
         <v>0.7838692906324881</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.3407742044431821</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
+      <c r="F37">
         <v>0.0597819311152806</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37">
         <v>0.6652335985897885</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.229824463461681</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
+      <c r="F38">
         <v>0.0398546207435204</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="I38">
         <v>0.3715162161996711</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.1426496669762157</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>0.0398546207435204</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>0.3719523186605735</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1347246854775372</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40">
         <v>0.3944552176229311</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.3724741304378967</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.0797092414870408</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>0.9788832544763144</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.6656984458890067</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.358620825972179</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F42">
         <v>0.1594184829740816</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>1.867018462371475</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>1.939750730991858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.545371392242338</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.362759138694281</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.5818581489630653</v>
+      </c>
+      <c r="F43">
         <v>0.2192004140893622</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.8792784798366571</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>4.050414874335821</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>4.632273023298887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2.678643746553387</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1.004138312722102</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.3636613431019158</v>
+      </c>
+      <c r="F44">
         <v>0.1594184829740816</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.5595408508051453</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H44" t="n">
-        <v>4.484647316833694</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>4.84830865993561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>3.748516248875003</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1971245226293271</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.004138312722102</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.7273226862038317</v>
+      </c>
+      <c r="F45">
         <v>0.3586915866916836</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H45" t="n">
-        <v>5.827177588771177</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>6.554500274975007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.88614559668552</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1533190731561433</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>0.6545904175834485</v>
+      </c>
+      <c r="F46">
         <v>1.076074760075051</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.1955023715289713</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.91767609125494</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>4.572266508838388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.299696965783299</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.358620825972179</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F47">
         <v>1.673894071227857</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.6647080631985026</v>
       </c>
-      <c r="H47" t="n">
-        <v>4.702103358454637</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>4.847567895695403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.331396891778013</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.645517486749922</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48">
         <v>0.498182759294005</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
+      <c r="I48">
         <v>2.904348390536412</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.394796743767444</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F49">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.052859516148553</v>
+      <c r="I49">
+        <v>3.198324053389319</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>